--- a/geometry_analysis/data/PNcountsPerGlom.xlsx
+++ b/geometry_analysis/data/PNcountsPerGlom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="11000" windowWidth="27720" windowHeight="19180"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="3" r:id="rId1"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -801,11 +801,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2"/>
     </row>

--- a/geometry_analysis/data/PNcountsPerGlom.xlsx
+++ b/geometry_analysis/data/PNcountsPerGlom.xlsx
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -934,11 +934,11 @@
         <v>0.5</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
     </row>
